--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu\Desktop\투자\[코딩] 프로젝트\진행중\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D78BB0-8857-4CC6-8007-AE5EC5D93E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A09C9-E3CA-4A06-A6B4-AC41A17AC5AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10536" windowHeight="4344" xr2:uid="{0FACE754-4E2F-405F-AE5D-2D2E73329B95}"/>
   </bookViews>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -441,13 +449,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,36 +490,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
@@ -531,6 +506,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -860,7 +871,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -878,587 +889,600 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="21"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="2" t="str">
         <f>D5&amp;"_"&amp;D6</f>
         <v>binance_spot</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" s="2" t="str">
         <f>D5&amp;"_"&amp;E6</f>
         <v>binance_future</v>
       </c>
-      <c r="F7" s="4" t="str">
+      <c r="F7" s="3" t="str">
         <f>F5&amp;"_"&amp;F6</f>
         <v>bitget_spot</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="3" t="str">
         <f>F5&amp;"_"&amp;G6</f>
         <v>bitget_future</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="4" t="str">
         <f>H5&amp;"_"&amp;H6</f>
         <v>bybit_spot</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="4" t="str">
         <f>H5&amp;"_"&amp;I6</f>
         <v>bybit_future</v>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="5" t="str">
         <f>J5&amp;"_"&amp;J6</f>
         <v>okx_spot</v>
       </c>
-      <c r="K7" s="6" t="str">
+      <c r="K7" s="5" t="str">
         <f>J5&amp;"_"&amp;K6</f>
         <v>okx_future</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="25" t="str">
+      <c r="D8" s="14" t="str">
         <f>"/hatiko_"&amp;D7</f>
         <v>/hatiko_binance_spot</v>
       </c>
-      <c r="E8" s="25" t="str">
+      <c r="E8" s="14" t="str">
         <f t="shared" ref="E8:K8" si="0">"/hatiko_"&amp;E7</f>
         <v>/hatiko_binance_future</v>
       </c>
-      <c r="F8" s="26" t="str">
+      <c r="F8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>/hatiko_bitget_spot</v>
       </c>
-      <c r="G8" s="26" t="str">
+      <c r="G8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>/hatiko_bitget_future</v>
       </c>
-      <c r="H8" s="27" t="str">
+      <c r="H8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>/hatiko_bybit_spot</v>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>/hatiko_bybit_future</v>
       </c>
-      <c r="J8" s="28" t="str">
+      <c r="J8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>/hatiko_okx_spot</v>
       </c>
-      <c r="K8" s="28" t="str">
+      <c r="K8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>/hatiko_okx_future</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25" t="str">
+      <c r="D9" s="14" t="str">
         <f>"/hatikoinfo_"&amp;D7</f>
         <v>/hatikoinfo_binance_spot</v>
       </c>
-      <c r="E9" s="25" t="str">
+      <c r="E9" s="14" t="str">
         <f t="shared" ref="E9:K9" si="1">"/hatikoinfo_"&amp;E7</f>
         <v>/hatikoinfo_binance_future</v>
       </c>
-      <c r="F9" s="26" t="str">
+      <c r="F9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>/hatikoinfo_bitget_spot</v>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>/hatikoinfo_bitget_future</v>
       </c>
-      <c r="H9" s="27" t="str">
+      <c r="H9" s="16" t="str">
         <f t="shared" si="1"/>
         <v>/hatikoinfo_bybit_spot</v>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="16" t="str">
         <f t="shared" si="1"/>
         <v>/hatikoinfo_bybit_future</v>
       </c>
-      <c r="J9" s="28" t="str">
+      <c r="J9" s="17" t="str">
         <f t="shared" si="1"/>
         <v>/hatikoinfo_okx_spot</v>
       </c>
-      <c r="K9" s="28" t="str">
+      <c r="K9" s="17" t="str">
         <f t="shared" si="1"/>
         <v>/hatikoinfo_okx_future</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="str">
+      <c r="D11" s="14" t="str">
         <f>"/reset_hatikoinfo_"&amp;D7</f>
         <v>/reset_hatikoinfo_binance_spot</v>
       </c>
-      <c r="E11" s="25" t="str">
+      <c r="E11" s="14" t="str">
         <f t="shared" ref="E11:K11" si="2">"/reset_hatikoinfo_"&amp;E7</f>
         <v>/reset_hatikoinfo_binance_future</v>
       </c>
-      <c r="F11" s="26" t="str">
+      <c r="F11" s="15" t="str">
         <f t="shared" si="2"/>
         <v>/reset_hatikoinfo_bitget_spot</v>
       </c>
-      <c r="G11" s="26" t="str">
+      <c r="G11" s="15" t="str">
         <f t="shared" si="2"/>
         <v>/reset_hatikoinfo_bitget_future</v>
       </c>
-      <c r="H11" s="27" t="str">
+      <c r="H11" s="16" t="str">
         <f t="shared" si="2"/>
         <v>/reset_hatikoinfo_bybit_spot</v>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="16" t="str">
         <f t="shared" si="2"/>
         <v>/reset_hatikoinfo_bybit_future</v>
       </c>
-      <c r="J11" s="28" t="str">
+      <c r="J11" s="17" t="str">
         <f t="shared" si="2"/>
         <v>/reset_hatikoinfo_okx_spot</v>
       </c>
-      <c r="K11" s="28" t="str">
+      <c r="K11" s="17" t="str">
         <f t="shared" si="2"/>
         <v>/reset_hatikoinfo_okx_future</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="23"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="14" t="str">
         <f>"/add_nMaxLong_"&amp;D7</f>
         <v>/add_nMaxLong_binance_spot</v>
       </c>
-      <c r="E12" s="25" t="str">
+      <c r="E12" s="14" t="str">
         <f t="shared" ref="E12:J12" si="3">"/add_nMaxLong_"&amp;E7</f>
         <v>/add_nMaxLong_binance_future</v>
       </c>
-      <c r="F12" s="26" t="str">
+      <c r="F12" s="15" t="str">
         <f t="shared" si="3"/>
         <v>/add_nMaxLong_bitget_spot</v>
       </c>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="15" t="str">
         <f t="shared" si="3"/>
         <v>/add_nMaxLong_bitget_future</v>
       </c>
-      <c r="H12" s="27" t="str">
+      <c r="H12" s="16" t="str">
         <f t="shared" si="3"/>
         <v>/add_nMaxLong_bybit_spot</v>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="I12" s="16" t="str">
         <f t="shared" si="3"/>
         <v>/add_nMaxLong_bybit_future</v>
       </c>
-      <c r="J12" s="28" t="str">
+      <c r="J12" s="17" t="str">
         <f t="shared" si="3"/>
         <v>/add_nMaxLong_okx_spot</v>
       </c>
-      <c r="K12" s="28" t="str">
+      <c r="K12" s="17" t="str">
         <f>"/add_nMaxLong_"&amp;K7</f>
         <v>/add_nMaxLong_okx_future</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="23"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="14" t="str">
         <f>"/subtract_nMaxLong_"&amp;D7</f>
         <v>/subtract_nMaxLong_binance_spot</v>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="14" t="str">
         <f t="shared" ref="E13:K13" si="4">"/subtract_nMaxLong_"&amp;E7</f>
         <v>/subtract_nMaxLong_binance_future</v>
       </c>
-      <c r="F13" s="26" t="str">
+      <c r="F13" s="15" t="str">
         <f t="shared" si="4"/>
         <v>/subtract_nMaxLong_bitget_spot</v>
       </c>
-      <c r="G13" s="26" t="str">
+      <c r="G13" s="15" t="str">
         <f t="shared" si="4"/>
         <v>/subtract_nMaxLong_bitget_future</v>
       </c>
-      <c r="H13" s="27" t="str">
+      <c r="H13" s="16" t="str">
         <f t="shared" si="4"/>
         <v>/subtract_nMaxLong_bybit_spot</v>
       </c>
-      <c r="I13" s="27" t="str">
+      <c r="I13" s="16" t="str">
         <f t="shared" si="4"/>
         <v>/subtract_nMaxLong_bybit_future</v>
       </c>
-      <c r="J13" s="28" t="str">
+      <c r="J13" s="17" t="str">
         <f t="shared" si="4"/>
         <v>/subtract_nMaxLong_okx_spot</v>
       </c>
-      <c r="K13" s="28" t="str">
+      <c r="K13" s="17" t="str">
         <f t="shared" si="4"/>
         <v>/subtract_nMaxLong_okx_future</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="23"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="14" t="str">
         <f>"/add_nMaxShort_"&amp;D7</f>
         <v>/add_nMaxShort_binance_spot</v>
       </c>
-      <c r="E14" s="25" t="str">
+      <c r="E14" s="14" t="str">
         <f t="shared" ref="E14:K14" si="5">"/add_nMaxShort_"&amp;E7</f>
         <v>/add_nMaxShort_binance_future</v>
       </c>
-      <c r="F14" s="26" t="str">
+      <c r="F14" s="15" t="str">
         <f t="shared" si="5"/>
         <v>/add_nMaxShort_bitget_spot</v>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="15" t="str">
         <f t="shared" si="5"/>
         <v>/add_nMaxShort_bitget_future</v>
       </c>
-      <c r="H14" s="27" t="str">
+      <c r="H14" s="16" t="str">
         <f t="shared" si="5"/>
         <v>/add_nMaxShort_bybit_spot</v>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="I14" s="16" t="str">
         <f t="shared" si="5"/>
         <v>/add_nMaxShort_bybit_future</v>
       </c>
-      <c r="J14" s="28" t="str">
+      <c r="J14" s="17" t="str">
         <f t="shared" si="5"/>
         <v>/add_nMaxShort_okx_spot</v>
       </c>
-      <c r="K14" s="28" t="str">
+      <c r="K14" s="17" t="str">
         <f t="shared" si="5"/>
         <v>/add_nMaxShort_okx_future</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="23"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="25" t="str">
+      <c r="D15" s="14" t="str">
         <f>"/subtract_nMaxShort_"&amp;D7</f>
         <v>/subtract_nMaxShort_binance_spot</v>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E15" s="14" t="str">
         <f t="shared" ref="E15:K15" si="6">"/subtract_nMaxShort_"&amp;E7</f>
         <v>/subtract_nMaxShort_binance_future</v>
       </c>
-      <c r="F15" s="26" t="str">
+      <c r="F15" s="15" t="str">
         <f t="shared" si="6"/>
         <v>/subtract_nMaxShort_bitget_spot</v>
       </c>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="15" t="str">
         <f t="shared" si="6"/>
         <v>/subtract_nMaxShort_bitget_future</v>
       </c>
-      <c r="H15" s="27" t="str">
+      <c r="H15" s="16" t="str">
         <f t="shared" si="6"/>
         <v>/subtract_nMaxShort_bybit_spot</v>
       </c>
-      <c r="I15" s="27" t="str">
+      <c r="I15" s="16" t="str">
         <f t="shared" si="6"/>
         <v>/subtract_nMaxShort_bybit_future</v>
       </c>
-      <c r="J15" s="28" t="str">
+      <c r="J15" s="17" t="str">
         <f t="shared" si="6"/>
         <v>/subtract_nMaxShort_okx_spot</v>
       </c>
-      <c r="K15" s="28" t="str">
+      <c r="K15" s="17" t="str">
         <f t="shared" si="6"/>
         <v>/subtract_nMaxShort_okx_future</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="25" t="str">
+      <c r="D16" s="14" t="str">
         <f>"/add_nIgnoreLong_"&amp;D7</f>
         <v>/add_nIgnoreLong_binance_spot</v>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E16" s="14" t="str">
         <f>"/add_nIgnoreLong_"&amp;E7</f>
         <v>/add_nIgnoreLong_binance_future</v>
       </c>
-      <c r="F16" s="26" t="str">
+      <c r="F16" s="15" t="str">
         <f t="shared" ref="F16:K16" si="7">"/add_nIgnoreLong_"&amp;F7</f>
         <v>/add_nIgnoreLong_bitget_spot</v>
       </c>
-      <c r="G16" s="26" t="str">
+      <c r="G16" s="15" t="str">
         <f t="shared" si="7"/>
         <v>/add_nIgnoreLong_bitget_future</v>
       </c>
-      <c r="H16" s="27" t="str">
+      <c r="H16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>/add_nIgnoreLong_bybit_spot</v>
       </c>
-      <c r="I16" s="27" t="str">
+      <c r="I16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>/add_nIgnoreLong_bybit_future</v>
       </c>
-      <c r="J16" s="28" t="str">
+      <c r="J16" s="17" t="str">
         <f t="shared" si="7"/>
         <v>/add_nIgnoreLong_okx_spot</v>
       </c>
-      <c r="K16" s="28" t="str">
+      <c r="K16" s="17" t="str">
         <f t="shared" si="7"/>
         <v>/add_nIgnoreLong_okx_future</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="25" t="str">
+      <c r="D17" s="14" t="str">
         <f>"/subtract_nIgnoreLong_"&amp;D7</f>
         <v>/subtract_nIgnoreLong_binance_spot</v>
       </c>
-      <c r="E17" s="25" t="str">
+      <c r="E17" s="14" t="str">
         <f>"/subtract_nIgnoreLong_"&amp;E7</f>
         <v>/subtract_nIgnoreLong_binance_future</v>
       </c>
-      <c r="F17" s="26" t="str">
+      <c r="F17" s="15" t="str">
         <f t="shared" ref="F17:K17" si="8">"/subtract_nIgnoreLong_"&amp;F7</f>
         <v>/subtract_nIgnoreLong_bitget_spot</v>
       </c>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="15" t="str">
         <f t="shared" si="8"/>
         <v>/subtract_nIgnoreLong_bitget_future</v>
       </c>
-      <c r="H17" s="27" t="str">
+      <c r="H17" s="16" t="str">
         <f t="shared" si="8"/>
         <v>/subtract_nIgnoreLong_bybit_spot</v>
       </c>
-      <c r="I17" s="27" t="str">
+      <c r="I17" s="16" t="str">
         <f t="shared" si="8"/>
         <v>/subtract_nIgnoreLong_bybit_future</v>
       </c>
-      <c r="J17" s="28" t="str">
+      <c r="J17" s="17" t="str">
         <f t="shared" si="8"/>
         <v>/subtract_nIgnoreLong_okx_spot</v>
       </c>
-      <c r="K17" s="28" t="str">
+      <c r="K17" s="17" t="str">
         <f t="shared" si="8"/>
         <v>/subtract_nIgnoreLong_okx_future</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="23"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="25" t="str">
+      <c r="D18" s="14" t="str">
         <f>"/add_nIgnoreShort_"&amp;D7</f>
         <v>/add_nIgnoreShort_binance_spot</v>
       </c>
-      <c r="E18" s="25" t="str">
+      <c r="E18" s="14" t="str">
         <f>"/add_nIgnoreShort_"&amp;E7</f>
         <v>/add_nIgnoreShort_binance_future</v>
       </c>
-      <c r="F18" s="26" t="str">
+      <c r="F18" s="15" t="str">
         <f t="shared" ref="F18:K18" si="9">"/add_nIgnoreShort_"&amp;F7</f>
         <v>/add_nIgnoreShort_bitget_spot</v>
       </c>
-      <c r="G18" s="26" t="str">
+      <c r="G18" s="15" t="str">
         <f t="shared" si="9"/>
         <v>/add_nIgnoreShort_bitget_future</v>
       </c>
-      <c r="H18" s="27" t="str">
+      <c r="H18" s="16" t="str">
         <f t="shared" si="9"/>
         <v>/add_nIgnoreShort_bybit_spot</v>
       </c>
-      <c r="I18" s="27" t="str">
+      <c r="I18" s="16" t="str">
         <f t="shared" si="9"/>
         <v>/add_nIgnoreShort_bybit_future</v>
       </c>
-      <c r="J18" s="28" t="str">
+      <c r="J18" s="17" t="str">
         <f t="shared" si="9"/>
         <v>/add_nIgnoreShort_okx_spot</v>
       </c>
-      <c r="K18" s="28" t="str">
+      <c r="K18" s="17" t="str">
         <f t="shared" si="9"/>
         <v>/add_nIgnoreShort_okx_future</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="14" t="str">
         <f>"/subtract_nIgnoreShort_"&amp;D7</f>
         <v>/subtract_nIgnoreShort_binance_spot</v>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="14" t="str">
         <f>"/subtract_nIgnoreShort_"&amp;E7</f>
         <v>/subtract_nIgnoreShort_binance_future</v>
       </c>
-      <c r="F19" s="26" t="str">
+      <c r="F19" s="15" t="str">
         <f t="shared" ref="F19:K19" si="10">"/subtract_nIgnoreShort_"&amp;F7</f>
         <v>/subtract_nIgnoreShort_bitget_spot</v>
       </c>
-      <c r="G19" s="26" t="str">
+      <c r="G19" s="15" t="str">
         <f t="shared" si="10"/>
         <v>/subtract_nIgnoreShort_bitget_future</v>
       </c>
-      <c r="H19" s="27" t="str">
+      <c r="H19" s="16" t="str">
         <f t="shared" si="10"/>
         <v>/subtract_nIgnoreShort_bybit_spot</v>
       </c>
-      <c r="I19" s="27" t="str">
+      <c r="I19" s="16" t="str">
         <f t="shared" si="10"/>
         <v>/subtract_nIgnoreShort_bybit_future</v>
       </c>
-      <c r="J19" s="28" t="str">
+      <c r="J19" s="17" t="str">
         <f t="shared" si="10"/>
         <v>/subtract_nIgnoreShort_okx_spot</v>
       </c>
-      <c r="K19" s="28" t="str">
+      <c r="K19" s="17" t="str">
         <f t="shared" si="10"/>
         <v>/subtract_nIgnoreShort_okx_future</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C23" s="30"/>
+    </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="14" t="s">
         <v>18</v>
       </c>
     </row>

--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu\Desktop\투자\[코딩] 프로젝트\진행중\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A09C9-E3CA-4A06-A6B4-AC41A17AC5AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50226674-4C89-417F-8F66-F7651FEC6E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10536" windowHeight="4344" xr2:uid="{0FACE754-4E2F-405F-AE5D-2D2E73329B95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Hatiko</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -95,14 +95,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/kctrendandhatikoinfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/resetkctrendandhatiko</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>info 보기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -148,6 +140,34 @@
   </si>
   <si>
     <t>참고) customPOA 실행 시 초기값 : (nMaxLong, nMaxShort, nIgnoreLong, nIgnoreShort) = 선물은 (2, 1, 1, 0)    현물은 (2, 1, 0, 0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reset_kctrendandhatiko</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kctrendandhatiko_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/orderinfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/change_log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG flag 변경하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 검사 후의 orderinfo 확인하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,6 +527,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,8 +566,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -868,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F054BB-2FB3-4B19-B690-312AB3CD5540}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -890,31 +919,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D6" s="8" t="s">
@@ -977,7 +1006,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1020,12 +1049,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="14" t="str">
         <f>"/hatikoinfo_"&amp;D7</f>
@@ -1061,27 +1090,27 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="14" t="str">
         <f>"/reset_hatikoinfo_"&amp;D7</f>
@@ -1117,9 +1146,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="19" t="s">
-        <v>24</v>
+      <c r="A12" s="30"/>
+      <c r="B12" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -1158,8 +1187,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="28"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1197,8 +1226,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1236,8 +1265,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1275,12 +1304,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="28"/>
-      <c r="B16" s="19" t="s">
-        <v>25</v>
+      <c r="A16" s="30"/>
+      <c r="B16" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="14" t="str">
         <f>"/add_nIgnoreLong_"&amp;D7</f>
@@ -1316,10 +1345,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="28"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="14" t="str">
         <f>"/subtract_nIgnoreLong_"&amp;D7</f>
@@ -1355,10 +1384,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="28"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="14" t="str">
         <f>"/add_nIgnoreShort_"&amp;D7</f>
@@ -1394,10 +1423,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="14" t="str">
         <f>"/subtract_nIgnoreShort_"&amp;D7</f>
@@ -1433,63 +1462,82 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C20" s="30"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C21" s="30"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C22" s="30"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C23" s="30"/>
+      <c r="A23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C24" s="30"/>
-      <c r="D24" s="6" t="s">
-        <v>22</v>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="D25" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B26:B27"/>
+  <mergeCells count="14">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>

--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu\Desktop\투자\[코딩] 프로젝트\진행중\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50226674-4C89-417F-8F66-F7651FEC6E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74BB8B-6F68-4A7F-B032-A6547E05ADCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10536" windowHeight="4344" xr2:uid="{0FACE754-4E2F-405F-AE5D-2D2E73329B95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="37">
   <si>
     <t>Hatiko</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>DEBUG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/haitko</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -533,6 +537,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,12 +574,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F054BB-2FB3-4B19-B690-312AB3CD5540}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -928,22 +932,22 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D6" s="8" t="s">
@@ -1006,7 +1010,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1015,42 +1019,20 @@
       <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="14" t="str">
-        <f>"/hatiko_"&amp;D7</f>
-        <v>/hatiko_binance_spot</v>
-      </c>
-      <c r="E8" s="14" t="str">
-        <f t="shared" ref="E8:K8" si="0">"/hatiko_"&amp;E7</f>
-        <v>/hatiko_binance_future</v>
-      </c>
-      <c r="F8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>/hatiko_bitget_spot</v>
-      </c>
-      <c r="G8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>/hatiko_bitget_future</v>
-      </c>
-      <c r="H8" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>/hatiko_bybit_spot</v>
-      </c>
-      <c r="I8" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>/hatiko_bybit_future</v>
-      </c>
-      <c r="J8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>/hatiko_okx_spot</v>
-      </c>
-      <c r="K8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>/hatiko_okx_future</v>
-      </c>
+      <c r="D8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="30"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1061,54 +1043,54 @@
         <v>/hatikoinfo_binance_spot</v>
       </c>
       <c r="E9" s="14" t="str">
-        <f t="shared" ref="E9:K9" si="1">"/hatikoinfo_"&amp;E7</f>
+        <f t="shared" ref="E9:K9" si="0">"/hatikoinfo_"&amp;E7</f>
         <v>/hatikoinfo_binance_future</v>
       </c>
       <c r="F9" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/hatikoinfo_bitget_spot</v>
       </c>
       <c r="G9" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/hatikoinfo_bitget_future</v>
       </c>
       <c r="H9" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/hatikoinfo_bybit_spot</v>
       </c>
       <c r="I9" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/hatikoinfo_bybit_future</v>
       </c>
       <c r="J9" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/hatikoinfo_okx_spot</v>
       </c>
       <c r="K9" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/hatikoinfo_okx_future</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1117,37 +1099,37 @@
         <v>/reset_hatikoinfo_binance_spot</v>
       </c>
       <c r="E11" s="14" t="str">
-        <f t="shared" ref="E11:K11" si="2">"/reset_hatikoinfo_"&amp;E7</f>
+        <f t="shared" ref="E11:K11" si="1">"/reset_hatikoinfo_"&amp;E7</f>
         <v>/reset_hatikoinfo_binance_future</v>
       </c>
       <c r="F11" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/reset_hatikoinfo_bitget_spot</v>
       </c>
       <c r="G11" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/reset_hatikoinfo_bitget_future</v>
       </c>
       <c r="H11" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/reset_hatikoinfo_bybit_spot</v>
       </c>
       <c r="I11" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/reset_hatikoinfo_bybit_future</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/reset_hatikoinfo_okx_spot</v>
       </c>
       <c r="K11" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/reset_hatikoinfo_okx_future</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1158,27 +1140,27 @@
         <v>/add_nMaxLong_binance_spot</v>
       </c>
       <c r="E12" s="14" t="str">
-        <f t="shared" ref="E12:J12" si="3">"/add_nMaxLong_"&amp;E7</f>
+        <f t="shared" ref="E12:J12" si="2">"/add_nMaxLong_"&amp;E7</f>
         <v>/add_nMaxLong_binance_future</v>
       </c>
       <c r="F12" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>/add_nMaxLong_bitget_spot</v>
       </c>
       <c r="G12" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>/add_nMaxLong_bitget_future</v>
       </c>
       <c r="H12" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>/add_nMaxLong_bybit_spot</v>
       </c>
       <c r="I12" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>/add_nMaxLong_bybit_future</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>/add_nMaxLong_okx_spot</v>
       </c>
       <c r="K12" s="17" t="str">
@@ -1187,8 +1169,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1197,37 +1179,37 @@
         <v>/subtract_nMaxLong_binance_spot</v>
       </c>
       <c r="E13" s="14" t="str">
-        <f t="shared" ref="E13:K13" si="4">"/subtract_nMaxLong_"&amp;E7</f>
+        <f t="shared" ref="E13:K13" si="3">"/subtract_nMaxLong_"&amp;E7</f>
         <v>/subtract_nMaxLong_binance_future</v>
       </c>
       <c r="F13" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>/subtract_nMaxLong_bitget_spot</v>
       </c>
       <c r="G13" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>/subtract_nMaxLong_bitget_future</v>
       </c>
       <c r="H13" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>/subtract_nMaxLong_bybit_spot</v>
       </c>
       <c r="I13" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>/subtract_nMaxLong_bybit_future</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>/subtract_nMaxLong_okx_spot</v>
       </c>
       <c r="K13" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>/subtract_nMaxLong_okx_future</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1236,37 +1218,37 @@
         <v>/add_nMaxShort_binance_spot</v>
       </c>
       <c r="E14" s="14" t="str">
-        <f t="shared" ref="E14:K14" si="5">"/add_nMaxShort_"&amp;E7</f>
+        <f t="shared" ref="E14:K14" si="4">"/add_nMaxShort_"&amp;E7</f>
         <v>/add_nMaxShort_binance_future</v>
       </c>
       <c r="F14" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>/add_nMaxShort_bitget_spot</v>
       </c>
       <c r="G14" s="15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>/add_nMaxShort_bitget_future</v>
       </c>
       <c r="H14" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>/add_nMaxShort_bybit_spot</v>
       </c>
       <c r="I14" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>/add_nMaxShort_bybit_future</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>/add_nMaxShort_okx_spot</v>
       </c>
       <c r="K14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>/add_nMaxShort_okx_future</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1275,37 +1257,37 @@
         <v>/subtract_nMaxShort_binance_spot</v>
       </c>
       <c r="E15" s="14" t="str">
-        <f t="shared" ref="E15:K15" si="6">"/subtract_nMaxShort_"&amp;E7</f>
+        <f t="shared" ref="E15:K15" si="5">"/subtract_nMaxShort_"&amp;E7</f>
         <v>/subtract_nMaxShort_binance_future</v>
       </c>
       <c r="F15" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>/subtract_nMaxShort_bitget_spot</v>
       </c>
       <c r="G15" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>/subtract_nMaxShort_bitget_future</v>
       </c>
       <c r="H15" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>/subtract_nMaxShort_bybit_spot</v>
       </c>
       <c r="I15" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>/subtract_nMaxShort_bybit_future</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>/subtract_nMaxShort_okx_spot</v>
       </c>
       <c r="K15" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>/subtract_nMaxShort_okx_future</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1320,33 +1302,33 @@
         <v>/add_nIgnoreLong_binance_future</v>
       </c>
       <c r="F16" s="15" t="str">
-        <f t="shared" ref="F16:K16" si="7">"/add_nIgnoreLong_"&amp;F7</f>
+        <f t="shared" ref="F16:K16" si="6">"/add_nIgnoreLong_"&amp;F7</f>
         <v>/add_nIgnoreLong_bitget_spot</v>
       </c>
       <c r="G16" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>/add_nIgnoreLong_bitget_future</v>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>/add_nIgnoreLong_bybit_spot</v>
       </c>
       <c r="I16" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>/add_nIgnoreLong_bybit_future</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>/add_nIgnoreLong_okx_spot</v>
       </c>
       <c r="K16" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>/add_nIgnoreLong_okx_future</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
@@ -1359,33 +1341,33 @@
         <v>/subtract_nIgnoreLong_binance_future</v>
       </c>
       <c r="F17" s="15" t="str">
-        <f t="shared" ref="F17:K17" si="8">"/subtract_nIgnoreLong_"&amp;F7</f>
+        <f t="shared" ref="F17:K17" si="7">"/subtract_nIgnoreLong_"&amp;F7</f>
         <v>/subtract_nIgnoreLong_bitget_spot</v>
       </c>
       <c r="G17" s="15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>/subtract_nIgnoreLong_bitget_future</v>
       </c>
       <c r="H17" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>/subtract_nIgnoreLong_bybit_spot</v>
       </c>
       <c r="I17" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>/subtract_nIgnoreLong_bybit_future</v>
       </c>
       <c r="J17" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>/subtract_nIgnoreLong_okx_spot</v>
       </c>
       <c r="K17" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>/subtract_nIgnoreLong_okx_future</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
@@ -1398,33 +1380,33 @@
         <v>/add_nIgnoreShort_binance_future</v>
       </c>
       <c r="F18" s="15" t="str">
-        <f t="shared" ref="F18:K18" si="9">"/add_nIgnoreShort_"&amp;F7</f>
+        <f t="shared" ref="F18:K18" si="8">"/add_nIgnoreShort_"&amp;F7</f>
         <v>/add_nIgnoreShort_bitget_spot</v>
       </c>
       <c r="G18" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>/add_nIgnoreShort_bitget_future</v>
       </c>
       <c r="H18" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>/add_nIgnoreShort_bybit_spot</v>
       </c>
       <c r="I18" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>/add_nIgnoreShort_bybit_future</v>
       </c>
       <c r="J18" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>/add_nIgnoreShort_okx_spot</v>
       </c>
       <c r="K18" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>/add_nIgnoreShort_okx_future</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1437,27 +1419,27 @@
         <v>/subtract_nIgnoreShort_binance_future</v>
       </c>
       <c r="F19" s="15" t="str">
-        <f t="shared" ref="F19:K19" si="10">"/subtract_nIgnoreShort_"&amp;F7</f>
+        <f t="shared" ref="F19:K19" si="9">"/subtract_nIgnoreShort_"&amp;F7</f>
         <v>/subtract_nIgnoreShort_bitget_spot</v>
       </c>
       <c r="G19" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>/subtract_nIgnoreShort_bitget_future</v>
       </c>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>/subtract_nIgnoreShort_bybit_spot</v>
       </c>
       <c r="I19" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>/subtract_nIgnoreShort_bybit_future</v>
       </c>
       <c r="J19" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>/subtract_nIgnoreShort_okx_spot</v>
       </c>
       <c r="K19" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>/subtract_nIgnoreShort_okx_future</v>
       </c>
     </row>
@@ -1474,7 +1456,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -1488,8 +1470,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1500,8 +1482,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
@@ -1510,43 +1492,44 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A8:A19"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A8:A19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu\Desktop\투자\[코딩] 프로젝트\진행중\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74BB8B-6F68-4A7F-B032-A6547E05ADCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A58F15-0234-4A6F-82B1-1D0EB9B99303}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10536" windowHeight="4344" xr2:uid="{0FACE754-4E2F-405F-AE5D-2D2E73329B95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Hatiko</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -171,7 +171,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/haitko</t>
+    <t>/hatiko</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -537,43 +537,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,7 +904,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -932,22 +932,22 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="30"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D6" s="8" t="s">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1019,20 +1019,20 @@
       <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="32"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1072,25 +1072,25 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="32"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="32"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1128,8 +1128,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="32"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1169,8 +1169,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="32"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1208,8 +1208,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="32"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1247,8 +1247,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1286,8 +1286,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="32"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1327,8 +1327,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="32"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
@@ -1366,8 +1366,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="32"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
@@ -1405,8 +1405,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -1470,8 +1470,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1482,8 +1482,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
@@ -1492,44 +1492,44 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="20" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="A8:A19"/>
     <mergeCell ref="D8:K8"/>
     <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu\Desktop\투자\[코딩] 프로젝트\진행중\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B54E3-C531-4620-8831-E41943E42828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94823B4B-F817-4E1A-AEA7-F26CB3D037F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10536" windowHeight="4344" xr2:uid="{0FACE754-4E2F-405F-AE5D-2D2E73329B95}"/>
   </bookViews>
@@ -416,56 +416,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -789,7 +789,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -812,31 +812,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -845,20 +845,20 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="14" t="s">
+      <c r="E6" s="7"/>
+      <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -867,180 +867,183 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu\Desktop\투자\[코딩] 프로젝트\진행중\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94823B4B-F817-4E1A-AEA7-F26CB3D037F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694DF97-9677-4655-8FEF-543CE9964F6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10536" windowHeight="4344" xr2:uid="{0FACE754-4E2F-405F-AE5D-2D2E73329B95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>주문</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>info 조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/set_hatikoinfo_all/변수/값</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/set_hatikoinfo_all/nmax_long/10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reset_hatikoinfo_all</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -382,6 +394,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -403,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,6 +481,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,11 +505,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -786,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F054BB-2FB3-4B19-B690-312AB3CD5540}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -826,14 +879,14 @@
       <c r="E5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -857,8 +910,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -881,9 +934,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -903,158 +956,188 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G10" s="11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="2" t="s">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="18" t="s">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C32" s="5"/>
     </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C34" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A6:A9"/>
+  <mergeCells count="10">
+    <mergeCell ref="A6:A11"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu\Desktop\투자\[코딩] 프로젝트\진행중\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694DF97-9677-4655-8FEF-543CE9964F6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B9A1BC-BD59-41D9-A041-56D60A8ED52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10536" windowHeight="4344" xr2:uid="{0FACE754-4E2F-405F-AE5D-2D2E73329B95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>주문</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>참고) customPOA 실행 시 초기값 : (nMaxLong, nMaxShort, nIgnoreLong, nIgnoreShort) = 선물은 (2, 1, 1, 0)    현물은 (10, 1, 0, 0)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Hatiko</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -208,6 +204,79 @@
   </si>
   <si>
     <t>/reset_hatikoinfo_all</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 On/Off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/change_kill_confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/set_kill_minute/값</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/set_kill_minute/10    --&gt; 10분으로 변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 알림 받기 On/Off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/change_discord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장가
+청산기능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기시간(분) 변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기값</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill_minute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 discord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill_confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +387,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -386,19 +467,6 @@
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -420,8 +488,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,8 +602,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +655,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,31 +670,81 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
+    <cellStyle name="20% - 강조색1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - 강조색2" xfId="2" builtinId="34"/>
     <cellStyle name="20% - 강조색4" xfId="4" builtinId="42"/>
+    <cellStyle name="60% - 강조색1" xfId="7" builtinId="32"/>
     <cellStyle name="60% - 강조색2" xfId="3" builtinId="36"/>
     <cellStyle name="60% - 강조색4" xfId="5" builtinId="44"/>
     <cellStyle name="출력" xfId="1" builtinId="21"/>
@@ -839,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F054BB-2FB3-4B19-B690-312AB3CD5540}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -851,10 +1072,10 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.296875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" customWidth="1"/>
     <col min="10" max="10" width="31.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -865,259 +1086,353 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="G4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
+      <c r="A6" s="31"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="22" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="31"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="31"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="24" t="s">
-        <v>4</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="31"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="G10" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="32"/>
+      <c r="B12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="G12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="H12" s="35">
+        <v>10</v>
+      </c>
+      <c r="I12" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G13" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="35">
+        <v>1</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="G14" s="35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="H14" s="35">
+        <v>0</v>
+      </c>
+      <c r="I14" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="G15" s="35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="H15" s="35">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="2" t="s">
+      <c r="I15" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="15" t="s">
+      <c r="E16" s="7"/>
+      <c r="G16" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D17" s="4"/>
+      <c r="G17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="36">
+        <v>10</v>
+      </c>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>11</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="20" t="s">
-        <v>10</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="G18" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
@@ -1126,18 +1441,26 @@
     <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="5"/>
     </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C35" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A17:A18"/>
+  <mergeCells count="15">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:B9"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu\Desktop\투자\[코딩] 프로젝트\진행중\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B9A1BC-BD59-41D9-A041-56D60A8ED52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C06085-8749-4A73-B213-CF77C0B72FC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10536" windowHeight="4344" xr2:uid="{0FACE754-4E2F-405F-AE5D-2D2E73329B95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>주문</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>변수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Off</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -277,6 +273,27 @@
   </si>
   <si>
     <t>Future</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidation_mdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidation_mdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전역 변수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HatikoInfo
+멤버 변수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -582,6 +599,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,47 +697,56 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,28 +763,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F054BB-2FB3-4B19-B690-312AB3CD5540}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1073,19 +1139,18 @@
     <col min="4" max="4" width="35.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="12.8984375" customWidth="1"/>
-    <col min="10" max="10" width="31.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.8984375" customWidth="1"/>
     <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1095,14 +1160,14 @@
       <c r="E3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1125,9 +1190,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="34"/>
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1149,10 +1214,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="22" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="34"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1171,10 +1236,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="34"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="15" t="s">
         <v>44</v>
       </c>
@@ -1182,15 +1247,14 @@
       <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="34"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1202,97 +1266,97 @@
       <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="31"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="34"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33" t="s">
+      <c r="I9" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="34"/>
+      <c r="B10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="G10" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="27" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="32"/>
-      <c r="B12" s="28" t="s">
+      <c r="G11" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="35"/>
+      <c r="B12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G13" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="35">
+      <c r="I13" s="21">
         <v>10</v>
       </c>
-      <c r="I12" s="35">
+      <c r="J13" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G13" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="35">
-        <v>1</v>
-      </c>
-      <c r="I13" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1305,19 +1369,20 @@
         <v>3</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="G14" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="35">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35">
+      <c r="G14" s="46"/>
+      <c r="H14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16" t="s">
+      <c r="J14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1327,19 +1392,20 @@
         <v>7</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="G15" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="35">
+      <c r="G15" s="46"/>
+      <c r="H15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="21">
         <v>0</v>
       </c>
-      <c r="I15" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1347,92 +1413,115 @@
         <v>6</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="G16" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G16" s="46"/>
+      <c r="H16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D17" s="4"/>
-      <c r="G17" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="36">
-        <v>10</v>
-      </c>
-      <c r="I17" s="36"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="16" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="40">
+        <v>80</v>
+      </c>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20" t="s">
+      <c r="I18" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="28"/>
+      <c r="B19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G19" s="50"/>
+      <c r="H19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="38">
+        <v>10</v>
+      </c>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G20" s="51"/>
+      <c r="H20" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
@@ -1445,7 +1534,14 @@
       <c r="C35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B18:C18"/>
@@ -1457,10 +1553,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu\Desktop\투자\[코딩] 프로젝트\진행중\customPOA\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C06085-8749-4A73-B213-CF77C0B72FC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10536" windowHeight="4344" xr2:uid="{0FACE754-4E2F-405F-AE5D-2D2E73329B95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10530" windowHeight="4350"/>
   </bookViews>
   <sheets>
     <sheet name="customPOA Inteface" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>주문</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -294,13 +293,25 @@
   <si>
     <t>HatikoInfo
 멤버 변수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 주의 : 종목정보만 리셋되고 매개변수는 유지됨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전역변수 확인하기 (Flag, 세팅값)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/view_globals</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -621,6 +632,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +763,48 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,46 +847,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,32 +1176,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F054BB-2FB3-4B19-B690-312AB3CD5540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.8984375" customWidth="1"/>
-    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1160,14 +1211,14 @@
       <c r="E3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1190,9 +1241,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1214,10 +1265,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="34"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="31" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="48"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1236,14 +1287,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="32"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
@@ -1251,10 +1304,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="29" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1270,23 +1323,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="30"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="50" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1297,9 +1350,9 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="18" t="s">
         <v>53</v>
       </c>
@@ -1309,15 +1362,15 @@
       <c r="E11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="35"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
       <c r="B12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1341,8 +1394,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="G13" s="49" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="28" t="s">
         <v>66</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -1355,8 +1408,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1369,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="G14" s="46"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="21" t="s">
         <v>35</v>
       </c>
@@ -1380,9 +1433,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1392,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="21" t="s">
         <v>36</v>
       </c>
@@ -1403,9 +1456,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="21" t="s">
         <v>37</v>
       </c>
@@ -1424,117 +1477,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
-      <c r="G17" s="47"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="34">
         <v>80</v>
       </c>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="28" t="s">
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="31" t="s">
         <v>65</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27" t="s">
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="53"/>
+      <c r="B19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="36">
         <v>10</v>
       </c>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C20" s="5"/>
-      <c r="G20" s="51"/>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
+      <c r="B20" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G18:G20"/>
@@ -1542,17 +1615,6 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/customPOA_Interface.xlsx
+++ b/documents/customPOA_Interface.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\customPOA\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\customPOA\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A0E9FF-F8E1-408E-B322-47E950970F7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10530" windowHeight="4350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10530" windowHeight="4350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customPOA Inteface" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>주문</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -305,13 +306,29 @@
   </si>
   <si>
     <t>/view_globals</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mexc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reload_markets</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마켓 정보 reload (신규상장용)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,6 +783,57 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,57 +871,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,11 +1193,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1211,14 +1228,14 @@
       <c r="E3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1242,8 +1259,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1266,9 +1283,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="45" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1288,9 +1305,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="15" t="s">
         <v>44</v>
       </c>
@@ -1305,9 +1322,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="43" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1324,22 +1341,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>43</v>
       </c>
+      <c r="G9" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="40" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1351,8 +1371,8 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="18" t="s">
         <v>53</v>
       </c>
@@ -1362,15 +1382,15 @@
       <c r="E11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1395,7 +1415,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="45" t="s">
         <v>66</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -1409,7 +1429,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1422,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="21" t="s">
         <v>35</v>
       </c>
@@ -1434,8 +1454,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1445,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="21" t="s">
         <v>36</v>
       </c>
@@ -1457,8 +1477,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="21" t="s">
         <v>37</v>
       </c>
@@ -1479,87 +1499,105 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
-      <c r="G17" s="30"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="51">
         <v>80</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="48" t="s">
         <v>65</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="35"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="G19" s="32"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="53">
         <v>10</v>
       </c>
-      <c r="J19" s="37"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="37"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
+      <c r="A22" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="5"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" s="5"/>
@@ -1595,7 +1633,14 @@
       <c r="C35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="G3:I3"/>
@@ -1612,9 +1657,6 @@
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
